--- a/data/outputs/OR_elsevier/3 .xlsx
+++ b/data/outputs/OR_elsevier/3 .xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS64"/>
+  <dimension ref="A1:BU64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -937,6 +947,12 @@
           <t>2-s2.0-84947043532</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1152,6 +1168,12 @@
           <t>2-s2.0-84954148175</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1359,6 +1381,12 @@
           <t>2-s2.0-84954185864</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1574,6 +1602,12 @@
           <t>2-s2.0-84954183811</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1781,6 +1815,12 @@
           <t>2-s2.0-84954174443</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1996,6 +2036,12 @@
           <t>2-s2.0-84954107872</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2211,6 +2257,12 @@
           <t>2-s2.0-84954169035</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2434,6 +2486,12 @@
           <t>2-s2.0-84954391027</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2653,6 +2711,12 @@
           <t>2-s2.0-84954390918</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2871,6 +2935,12 @@
         <is>
           <t>2-s2.0-84954110385</t>
         </is>
+      </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -3083,6 +3153,12 @@
           <t>2-s2.0-84945242844</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3298,6 +3374,12 @@
           <t>2-s2.0-84945463258</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3513,6 +3595,12 @@
           <t>2-s2.0-84945457988</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3728,6 +3816,12 @@
           <t>2-s2.0-84945444102</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3951,6 +4045,12 @@
           <t>2-s2.0-84945470642</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4166,6 +4266,12 @@
           <t>2-s2.0-84945199500</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4381,6 +4487,12 @@
           <t>2-s2.0-84945182119</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4596,6 +4708,12 @@
           <t>2-s2.0-84945478072</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4815,6 +4933,12 @@
           <t>2-s2.0-84945242845</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5030,6 +5154,12 @@
           <t>2-s2.0-84945207631</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5247,6 +5377,12 @@
           <t>2-s2.0-84938212230</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5462,6 +5598,12 @@
           <t>2-s2.0-84938152448</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5687,6 +5829,12 @@
           <t>2-s2.0-84938076087</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5902,6 +6050,12 @@
           <t>2-s2.0-84938213325</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6117,6 +6271,12 @@
           <t>2-s2.0-84938197795</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6332,6 +6492,12 @@
           <t>2-s2.0-84938202103</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6547,6 +6713,12 @@
           <t>2-s2.0-84938213143</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6762,6 +6934,12 @@
           <t>2-s2.0-84938204816</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6977,6 +7155,12 @@
           <t>2-s2.0-84938199529</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7188,6 +7372,12 @@
           <t>2-s2.0-84938211240</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7403,6 +7593,12 @@
           <t>2-s2.0-84930910713</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7618,6 +7814,12 @@
           <t>2-s2.0-84930914047</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7825,6 +8027,12 @@
           <t>2-s2.0-84930910533</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8040,6 +8248,12 @@
           <t>2-s2.0-84930918519</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8255,6 +8469,12 @@
           <t>2-s2.0-84930926561</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8470,6 +8690,12 @@
           <t>2-s2.0-84930894531</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8685,6 +8911,12 @@
           <t>2-s2.0-84930889163</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8904,6 +9136,12 @@
           <t>2-s2.0-84930930330</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9111,6 +9349,12 @@
           <t>2-s2.0-84930912560</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9330,6 +9574,12 @@
           <t>2-s2.0-84930893831</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9553,6 +9803,12 @@
           <t>2-s2.0-84928492022</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9768,6 +10024,12 @@
           <t>2-s2.0-84928492024</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9983,6 +10245,12 @@
           <t>2-s2.0-84928473929</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10198,6 +10466,12 @@
           <t>2-s2.0-84928473933</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10413,6 +10687,12 @@
           <t>2-s2.0-84928501133</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10628,6 +10908,12 @@
           <t>2-s2.0-84928494213</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10843,6 +11129,12 @@
           <t>2-s2.0-84921410581</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11054,6 +11346,12 @@
           <t>2-s2.0-84928501137</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11269,6 +11567,12 @@
           <t>2-s2.0-84928473721</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11484,6 +11788,12 @@
           <t>2-s2.0-84928485058</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11703,6 +12013,12 @@
           <t>2-s2.0-84928494458</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11938,6 +12254,12 @@
           <t>2-s2.0-84928501394</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12173,6 +12495,12 @@
           <t>2-s2.0-84928473547</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12407,6 +12735,12 @@
         <is>
           <t>2-s2.0-84928487442</t>
         </is>
+      </c>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -12603,6 +12937,12 @@
           <t>2-s2.0-84928475924</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12842,6 +13182,12 @@
           <t>2-s2.0-84928485328</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13077,6 +13423,12 @@
           <t>2-s2.0-84928492444</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13312,6 +13664,12 @@
           <t>2-s2.0-84928473546</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13551,6 +13909,12 @@
           <t>2-s2.0-84928494457</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13790,6 +14154,12 @@
           <t>2-s2.0-84928494462</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -14024,6 +14394,12 @@
         <is>
           <t>2-s2.0-84928501393</t>
         </is>
+      </c>
+      <c r="BT62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -14216,6 +14592,12 @@
       <c r="BQ63" t="inlineStr"/>
       <c r="BR63" t="inlineStr"/>
       <c r="BS63" t="inlineStr"/>
+      <c r="BT63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14439,6 +14821,12 @@
           <t>2-s2.0-84928475925</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
